--- a/xlsx/motor-4-jump.xlsx
+++ b/xlsx/motor-4-jump.xlsx
@@ -59,7 +59,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2780,14 +2880,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P2:U2">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:U19 B20:O22">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,22 +3087,22 @@
       <c r="O3" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>1.35</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>1.3</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>1.25</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>1.05</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>0.95</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>0.72</v>
       </c>
     </row>
@@ -3047,22 +3152,22 @@
       <c r="O4" s="1">
         <v>2.06</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>1.35</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>1.3</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>1</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>0.74</v>
       </c>
     </row>
@@ -3112,22 +3217,22 @@
       <c r="O5" s="1">
         <v>2.09</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>1.45</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>1.4</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>1.35</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>1.05</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>0.76</v>
       </c>
     </row>
@@ -3177,22 +3282,22 @@
       <c r="O6" s="1">
         <v>2.12</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>1.45</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>1.4</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>1.2</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>0.78</v>
       </c>
     </row>
@@ -3242,22 +3347,22 @@
       <c r="O7" s="1">
         <v>2.15</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>1.55</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>1.5</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>1.45</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>1.25</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>0.8</v>
       </c>
     </row>
@@ -3307,22 +3412,22 @@
       <c r="O8" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>1.6</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>1.55</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>1.5</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>1.3</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>1.2</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>0.82</v>
       </c>
     </row>
@@ -3372,22 +3477,22 @@
       <c r="O9" s="1">
         <v>2.21</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>1.65</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>1.6</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>1.55</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>1.35</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <v>1.25</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <v>0.84</v>
       </c>
     </row>
@@ -3437,22 +3542,22 @@
       <c r="O10" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>1.7</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>1.65</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>1.6</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>1.4</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>1.3</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <v>0.86</v>
       </c>
     </row>
@@ -3502,22 +3607,22 @@
       <c r="O11" s="1">
         <v>2.27</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>1.75</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>1.7</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>1.65</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>1.45</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>1.35</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -3567,22 +3672,22 @@
       <c r="O12" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>1.75</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>1.7</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>1.5</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>1.4</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -3632,22 +3737,22 @@
       <c r="O13" s="1">
         <v>2.33</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>1.85</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>1.8</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>1.75</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>1.55</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>1.45</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>0.92</v>
       </c>
     </row>
@@ -3697,22 +3802,22 @@
       <c r="O14" s="1">
         <v>2.36</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>1.9</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>1.85</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>1.8</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>1.6</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>1.5</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <v>0.94</v>
       </c>
     </row>
@@ -3762,22 +3867,22 @@
       <c r="O15" s="1">
         <v>2.39</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>1.95</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>1.9</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>1.85</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>1.65</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>1.55</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>0.96</v>
       </c>
     </row>
@@ -3827,22 +3932,22 @@
       <c r="O16" s="1">
         <v>2.42</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>1.95</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>1.9</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>1.7</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <v>1.6</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3892,22 +3997,22 @@
       <c r="O17" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>2</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>1.95</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <v>1.75</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="1">
         <v>1.65</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <v>1.02</v>
       </c>
     </row>
@@ -3957,22 +4062,22 @@
       <c r="O18" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <v>2.1</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <v>2</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <v>1.8</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="1">
         <v>1.7</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="1">
         <v>1.04</v>
       </c>
     </row>
@@ -5179,14 +5284,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P2:U2">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>P3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:U19 B20:O22">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/motor-4-jump.xlsx
+++ b/xlsx/motor-4-jump.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="6450" yWindow="540" windowWidth="27495" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,132 +61,12 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -205,6 +92,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -497,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1410 +397,1590 @@
     <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
         <v>7</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>8</v>
       </c>
-      <c r="D1">
+      <c r="G1">
         <v>9</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>10</v>
       </c>
-      <c r="F1">
+      <c r="I1">
         <v>11</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>12</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>14</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <v>15</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>16</v>
       </c>
-      <c r="L1">
+      <c r="O1">
         <v>17</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>18</v>
       </c>
-      <c r="N1">
+      <c r="Q1">
         <v>19</v>
       </c>
-      <c r="O1">
+      <c r="R1" s="2">
         <v>20</v>
       </c>
-      <c r="P1">
+      <c r="S1" s="2">
         <v>26</v>
       </c>
-      <c r="Q1">
+      <c r="T1" s="2">
         <v>36</v>
       </c>
-      <c r="R1">
+      <c r="U1" s="2">
         <v>46</v>
       </c>
-      <c r="S1">
+      <c r="V1" s="2">
         <v>56</v>
       </c>
-      <c r="T1">
+      <c r="W1" s="2">
         <v>66</v>
       </c>
-      <c r="U1">
+      <c r="X1" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.97</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
         <v>1.08</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>1.17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>1.24</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>1.31</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>1.38</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>1.43</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>1.47</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>1.51</v>
       </c>
-      <c r="K2" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="O2" s="1">
         <v>1.56</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>1.58</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>1.6</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1">
         <v>1.62</v>
       </c>
-      <c r="P2" s="1">
+      <c r="S2" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="T2" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R2" s="1">
+      <c r="U2" s="1">
         <v>1.06</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>0.99</v>
       </c>
-      <c r="T2" s="1">
+      <c r="W2" s="1">
         <v>0.89</v>
       </c>
-      <c r="U2" s="1">
+      <c r="X2" s="1">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>0.72</v>
+      </c>
+      <c r="C3">
+        <v>0.84</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="F3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3">
         <v>1.2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3">
         <v>1.27</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3">
         <v>1.34</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3">
         <v>1.41</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3">
         <v>1.46</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3">
         <v>1.5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3">
         <v>1.54</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3">
         <v>1.58</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3">
         <v>1.59</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3">
         <v>1.61</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3">
         <v>1.63</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3">
         <v>1.65</v>
       </c>
-      <c r="P3" s="1">
+      <c r="S3">
         <v>1.23</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="T3">
         <v>1.17</v>
       </c>
-      <c r="R3" s="1">
+      <c r="U3">
         <v>1.08</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3">
         <v>1.02</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3">
         <v>0.92</v>
       </c>
-      <c r="U3" s="1">
+      <c r="X3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <v>0.87</v>
+      </c>
+      <c r="D4">
+        <v>0.97</v>
+      </c>
+      <c r="E4">
         <v>1.03</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4">
         <v>1.23</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4">
         <v>1.3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4">
         <v>1.37</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4">
         <v>1.44</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4">
         <v>1.49</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4">
         <v>1.53</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4">
         <v>1.57</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4">
         <v>1.61</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4">
         <v>1.62</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4">
         <v>1.64</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4">
         <v>1.66</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4">
         <v>1.68</v>
       </c>
-      <c r="P4" s="1">
+      <c r="S4">
         <v>1.26</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="T4">
         <v>1.2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="U4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4">
         <v>1.05</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4">
         <v>0.95</v>
       </c>
-      <c r="U4" s="1">
+      <c r="X4">
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>0.78</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1.06</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5">
         <v>1.17</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5">
         <v>1.26</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5">
         <v>1.34</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5">
         <v>1.4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5">
         <v>1.47</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>1.52</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5">
         <v>1.56</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5">
         <v>1.6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5">
         <v>1.64</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5">
         <v>1.65</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5">
         <v>1.67</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5">
         <v>1.69</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5">
         <v>1.71</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5">
         <v>1.29</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5">
         <v>1.23</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5">
         <v>1.08</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5">
         <v>0.98</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5">
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>0.81</v>
+      </c>
+      <c r="C6">
+        <v>0.93</v>
+      </c>
+      <c r="D6">
+        <v>1.03</v>
+      </c>
+      <c r="E6">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6">
         <v>1.2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6">
         <v>1.29</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6">
         <v>1.37</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6">
         <v>1.43</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6">
         <v>1.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6">
         <v>1.55</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6">
         <v>1.59</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6">
         <v>1.63</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6">
         <v>1.67</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6">
         <v>1.68</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6">
         <v>1.7</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6">
         <v>1.72</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6">
         <v>1.74</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6">
         <v>1.32</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6">
         <v>1.26</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6">
         <v>1.01</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6">
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>0.84</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>1.06</v>
+      </c>
+      <c r="E7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7">
         <v>1.23</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7">
         <v>1.32</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7">
         <v>1.4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7">
         <v>1.46</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7">
         <v>1.53</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7">
         <v>1.58</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7">
         <v>1.62</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7">
         <v>1.66</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7">
         <v>1.7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7">
         <v>1.71</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7">
         <v>1.73</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7">
         <v>1.75</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7">
         <v>1.77</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7">
         <v>1.35</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7">
         <v>1.29</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7">
         <v>1.19</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7">
         <v>1.04</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7">
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>0.87</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8">
         <v>1.26</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8">
         <v>1.35</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8">
         <v>1.43</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8">
         <v>1.49</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8">
         <v>1.56</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8">
         <v>1.61</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8">
         <v>1.65</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8">
         <v>1.69</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8">
         <v>1.73</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8">
         <v>1.74</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8">
         <v>1.76</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8">
         <v>1.78</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8">
         <v>1.8</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8">
         <v>1.38</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8">
         <v>1.32</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8">
         <v>1.22</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8">
         <v>1.17</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8">
         <v>1.07</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+      <c r="C9">
+        <v>1.03</v>
+      </c>
+      <c r="D9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E9">
         <v>1.18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9">
         <v>1.29</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9">
         <v>1.38</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9">
         <v>1.46</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9">
         <v>1.52</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9">
         <v>1.59</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9">
         <v>1.64</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9">
         <v>1.68</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9">
         <v>1.72</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9">
         <v>1.76</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9">
         <v>1.77</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9">
         <v>1.79</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9">
         <v>1.81</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9">
         <v>1.83</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9">
         <v>1.41</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9">
         <v>1.35</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9">
         <v>1.25</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9">
         <v>1.2</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>0.93</v>
+      </c>
+      <c r="C10">
+        <v>1.06</v>
+      </c>
+      <c r="D10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E10">
         <v>1.21</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10">
         <v>1.32</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10">
         <v>1.41</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10">
         <v>1.49</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10">
         <v>1.55</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10">
         <v>1.62</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10">
         <v>1.67</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10">
         <v>1.71</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10">
         <v>1.74</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10">
         <v>1.79</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10">
         <v>1.8</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10">
         <v>1.82</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10">
         <v>1.84</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10">
         <v>1.86</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10">
         <v>1.44</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10">
         <v>1.38</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10">
         <v>1.28</v>
       </c>
-      <c r="S10" s="1">
+      <c r="V10">
         <v>1.23</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="U10" s="1">
+      <c r="X10">
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>0.97</v>
+      </c>
+      <c r="C11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.18</v>
+      </c>
+      <c r="E11">
         <v>1.24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11">
         <v>1.35</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11">
         <v>1.44</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11">
         <v>1.52</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11">
         <v>1.58</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11">
         <v>1.65</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11">
         <v>1.7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11">
         <v>1.74</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11">
         <v>1.77</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11">
         <v>1.83</v>
       </c>
-      <c r="L11" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="O11">
+        <v>1.84</v>
+      </c>
+      <c r="P11">
         <v>1.85</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11">
         <v>1.87</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11">
         <v>1.89</v>
       </c>
-      <c r="P11" s="1">
+      <c r="S11">
         <v>1.47</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11">
         <v>1.41</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11">
         <v>1.31</v>
       </c>
-      <c r="S11" s="1">
+      <c r="V11">
         <v>1.26</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11">
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.21</v>
+      </c>
+      <c r="E12">
         <v>1.27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12">
         <v>1.38</v>
       </c>
-      <c r="D12" s="1">
+      <c r="G12">
         <v>1.47</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12">
         <v>1.55</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12">
         <v>1.61</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12">
         <v>1.68</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12">
         <v>1.73</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12">
         <v>1.77</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12">
         <v>1.8</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12">
         <v>1.86</v>
       </c>
-      <c r="L12" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="O12">
+        <v>1.87</v>
+      </c>
+      <c r="P12">
         <v>1.88</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12">
         <v>1.9</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12">
         <v>1.92</v>
       </c>
-      <c r="P12" s="1">
+      <c r="S12">
         <v>1.5</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="T12">
         <v>1.44</v>
       </c>
-      <c r="R12" s="1">
+      <c r="U12">
         <v>1.34</v>
       </c>
-      <c r="S12" s="1">
+      <c r="V12">
         <v>1.29</v>
       </c>
-      <c r="T12" s="1">
+      <c r="W12">
         <v>1.19</v>
       </c>
-      <c r="U12" s="1">
+      <c r="X12">
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>1.03</v>
+      </c>
+      <c r="C13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.24</v>
+      </c>
+      <c r="E13">
         <v>1.3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13">
         <v>1.41</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13">
         <v>1.5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13">
         <v>1.58</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13">
         <v>1.64</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13">
         <v>1.71</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13">
         <v>1.76</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13">
         <v>1.8</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13">
         <v>1.83</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13">
         <v>1.89</v>
       </c>
-      <c r="L13" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="O13">
+        <v>1.9</v>
+      </c>
+      <c r="P13">
         <v>1.92</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13">
         <v>1.93</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13">
         <v>1.95</v>
       </c>
-      <c r="P13" s="1">
+      <c r="S13">
         <v>1.53</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13">
         <v>1.47</v>
       </c>
-      <c r="R13" s="1">
+      <c r="U13">
         <v>1.37</v>
       </c>
-      <c r="S13" s="1">
+      <c r="V13">
         <v>1.32</v>
       </c>
-      <c r="T13" s="1">
+      <c r="W13">
         <v>1.22</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>1.06</v>
+      </c>
+      <c r="C14">
+        <v>1.18</v>
+      </c>
+      <c r="D14">
+        <v>1.27</v>
+      </c>
+      <c r="E14">
         <v>1.33</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14">
         <v>1.44</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14">
         <v>1.53</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14">
         <v>1.61</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14">
         <v>1.67</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14">
         <v>1.74</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14">
         <v>1.79</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14">
         <v>1.84</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14">
         <v>1.86</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14">
         <v>1.92</v>
       </c>
-      <c r="L14" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="O14">
+        <v>1.93</v>
+      </c>
+      <c r="P14">
         <v>1.95</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14">
         <v>1.96</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14">
         <v>1.98</v>
       </c>
-      <c r="P14" s="1">
+      <c r="S14">
         <v>1.56</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="T14">
         <v>1.5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14">
         <v>1.4</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14">
         <v>1.35</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14">
         <v>1.25</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14">
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.21</v>
+      </c>
+      <c r="D15">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
         <v>1.36</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15">
         <v>1.47</v>
       </c>
-      <c r="D15" s="1">
+      <c r="G15">
         <v>1.56</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15">
         <v>1.64</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15">
         <v>1.7</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15">
         <v>1.77</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15">
         <v>1.82</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15">
         <v>1.87</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15">
         <v>1.89</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15">
         <v>1.95</v>
       </c>
-      <c r="L15" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="O15">
+        <v>1.96</v>
+      </c>
+      <c r="P15">
         <v>1.98</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15">
         <v>1.99</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15">
         <v>2.0099999999999998</v>
       </c>
-      <c r="P15" s="1">
+      <c r="S15">
         <v>1.59</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="T15">
         <v>1.53</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15">
         <v>1.43</v>
       </c>
-      <c r="S15" s="1">
+      <c r="V15">
         <v>1.38</v>
       </c>
-      <c r="T15" s="1">
+      <c r="W15">
         <v>1.28</v>
       </c>
-      <c r="U15" s="1">
+      <c r="X15">
         <v>0.94</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.24</v>
+      </c>
+      <c r="D16">
+        <v>1.33</v>
+      </c>
+      <c r="E16">
         <v>1.39</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16">
         <v>1.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16">
         <v>1.6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16">
         <v>1.67</v>
       </c>
-      <c r="F16" s="1">
+      <c r="I16">
         <v>1.73</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16">
         <v>1.8</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16">
         <v>1.85</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16">
         <v>1.9</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16">
         <v>1.92</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16">
         <v>1.98</v>
       </c>
-      <c r="L16" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>2.0099999999999998</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16">
         <v>2.02</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16">
         <v>2.04</v>
       </c>
-      <c r="P16" s="1">
+      <c r="S16">
         <v>1.62</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="T16">
         <v>1.56</v>
       </c>
-      <c r="R16" s="1">
+      <c r="U16">
         <v>1.46</v>
       </c>
-      <c r="S16" s="1">
+      <c r="V16">
         <v>1.41</v>
       </c>
-      <c r="T16" s="1">
+      <c r="W16">
         <v>1.31</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16">
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.41</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.27</v>
+      </c>
+      <c r="D17">
+        <v>1.36</v>
+      </c>
+      <c r="E17">
+        <v>1.42</v>
+      </c>
+      <c r="F17">
         <v>1.53</v>
       </c>
-      <c r="D17" s="1">
+      <c r="G17">
         <v>1.63</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17">
         <v>1.7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="I17">
         <v>1.76</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17">
         <v>1.83</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17">
         <v>1.88</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17">
         <v>1.93</v>
       </c>
-      <c r="J17" s="1">
+      <c r="M17">
         <v>1.95</v>
       </c>
-      <c r="K17" s="1">
+      <c r="N17">
         <v>2.0099999999999998</v>
       </c>
-      <c r="L17" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="O17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P17">
         <v>2.04</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17">
         <v>2.0499999999999998</v>
       </c>
-      <c r="O17" s="1">
+      <c r="R17">
         <v>2.0699999999999998</v>
       </c>
-      <c r="P17" s="1">
+      <c r="S17">
         <v>1.65</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="T17">
         <v>1.59</v>
       </c>
-      <c r="R17" s="1">
+      <c r="U17">
         <v>1.49</v>
       </c>
-      <c r="S17" s="1">
+      <c r="V17">
         <v>1.43</v>
       </c>
-      <c r="T17" s="1">
+      <c r="W17">
         <v>1.34</v>
       </c>
-      <c r="U17" s="1">
+      <c r="X17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>1.18</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>1.39</v>
+      </c>
+      <c r="E18">
+        <v>1.45</v>
+      </c>
+      <c r="F18">
         <v>1.56</v>
       </c>
-      <c r="D18" s="1">
+      <c r="G18">
         <v>1.66</v>
       </c>
-      <c r="E18" s="1">
+      <c r="H18">
         <v>1.73</v>
       </c>
-      <c r="F18" s="1">
+      <c r="I18">
         <v>1.8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18">
         <v>1.86</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18">
         <v>1.91</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18">
         <v>1.96</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18">
         <v>1.99</v>
       </c>
-      <c r="K18" s="1">
+      <c r="N18">
         <v>2.04</v>
       </c>
-      <c r="L18" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="O18">
+        <v>2.06</v>
+      </c>
+      <c r="P18">
         <v>2.0699999999999998</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18">
         <v>2.08</v>
       </c>
-      <c r="O18" s="1">
+      <c r="R18">
         <v>2.1</v>
       </c>
-      <c r="P18" s="1">
+      <c r="S18">
         <v>1.68</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="T18">
         <v>1.62</v>
       </c>
-      <c r="R18" s="1">
+      <c r="U18">
         <v>1.52</v>
       </c>
-      <c r="S18" s="1">
+      <c r="V18">
         <v>1.47</v>
       </c>
-      <c r="T18" s="1">
+      <c r="W18">
         <v>1.37</v>
       </c>
-      <c r="U18" s="1">
+      <c r="X18">
         <v>1.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>1.21</v>
+      </c>
+      <c r="C19">
+        <v>1.33</v>
+      </c>
+      <c r="D19">
+        <v>1.42</v>
+      </c>
+      <c r="E19">
+        <v>1.48</v>
+      </c>
+      <c r="F19">
         <v>1.6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="G19">
         <v>1.7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="H19">
         <v>1.76</v>
       </c>
-      <c r="F19" s="1">
+      <c r="I19">
         <v>1.84</v>
       </c>
-      <c r="G19" s="1">
+      <c r="J19">
         <v>1.9</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19">
         <v>1.95</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="M19">
         <v>2.0299999999999998</v>
       </c>
-      <c r="K19" s="1">
+      <c r="N19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L19" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="O19">
+        <v>2.09</v>
+      </c>
+      <c r="P19">
         <v>2.1</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19">
         <v>2.11</v>
       </c>
-      <c r="O19" s="1">
+      <c r="R19">
         <v>2.14</v>
       </c>
-      <c r="P19" s="1">
+      <c r="S19">
         <v>1.7</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="T19">
         <v>1.65</v>
       </c>
-      <c r="R19" s="1">
+      <c r="U19">
         <v>1.55</v>
       </c>
-      <c r="S19" s="1">
+      <c r="V19">
         <v>1.5</v>
       </c>
-      <c r="T19" s="1">
+      <c r="W19">
         <v>1.4</v>
       </c>
-      <c r="U19" s="1">
+      <c r="X19">
         <v>1.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>1.24</v>
+      </c>
+      <c r="C20">
+        <v>1.37</v>
+      </c>
+      <c r="D20">
+        <v>1.45</v>
+      </c>
+      <c r="E20">
+        <v>1.51</v>
+      </c>
+      <c r="F20">
         <v>1.64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="G20">
         <v>1.74</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20">
         <v>1.8</v>
       </c>
-      <c r="F20" s="1">
+      <c r="I20">
         <v>1.88</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20">
         <v>1.94</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20">
         <v>1.99</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20">
         <v>2.04</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20">
         <v>2.0699999999999998</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20">
         <v>2.1</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20">
         <v>2.12</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20">
         <v>2.14</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20">
         <v>2.15</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21">
+        <v>1.27</v>
+      </c>
+      <c r="C21">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
+        <v>1.48</v>
+      </c>
+      <c r="E21">
+        <v>1.54</v>
+      </c>
+      <c r="F21">
         <v>1.68</v>
       </c>
-      <c r="D21" s="1">
+      <c r="G21">
         <v>1.78</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21">
         <v>1.84</v>
       </c>
-      <c r="F21" s="1">
+      <c r="I21">
         <v>1.92</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21">
         <v>1.98</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21">
         <v>2.08</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21">
         <v>2.11</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21">
         <v>2.14</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21">
         <v>2.16</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21">
         <v>2.1800000000000002</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21">
         <v>2.19</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
+        <v>1.29</v>
+      </c>
+      <c r="C22">
+        <v>1.44</v>
+      </c>
+      <c r="D22">
+        <v>1.51</v>
+      </c>
+      <c r="E22">
         <v>1.57</v>
       </c>
-      <c r="C22" s="1">
+      <c r="F22">
         <v>1.72</v>
       </c>
-      <c r="D22" s="1">
+      <c r="G22">
         <v>1.82</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22">
         <v>1.88</v>
       </c>
-      <c r="F22" s="1">
+      <c r="I22">
         <v>1.96</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22">
         <v>2.02</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22">
         <v>2.0699999999999998</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22">
         <v>2.12</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22">
         <v>2.14</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22">
         <v>2.2200000000000002</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22">
         <v>2.23</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2880,18 +2950,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X22">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U2">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
-      <formula>P3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U19 B20:O22">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2901,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2911,1410 +2974,1590 @@
     <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
         <v>7</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>8</v>
       </c>
-      <c r="D1">
+      <c r="G1">
         <v>9</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>10</v>
       </c>
-      <c r="F1">
+      <c r="I1">
         <v>11</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>12</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>14</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <v>15</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>16</v>
       </c>
-      <c r="L1">
+      <c r="O1">
         <v>17</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>18</v>
       </c>
-      <c r="N1">
+      <c r="Q1">
         <v>19</v>
       </c>
-      <c r="O1">
+      <c r="R1" s="2">
         <v>20</v>
       </c>
-      <c r="P1">
+      <c r="S1" s="2">
         <v>26</v>
       </c>
-      <c r="Q1">
+      <c r="T1" s="2">
         <v>36</v>
       </c>
-      <c r="R1">
+      <c r="U1" s="2">
         <v>46</v>
       </c>
-      <c r="S1">
+      <c r="V1" s="2">
         <v>56</v>
       </c>
-      <c r="T1">
+      <c r="W1" s="2">
         <v>66</v>
       </c>
-      <c r="U1">
+      <c r="X1" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>0.72</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>1.23</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>1.34</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>1.45</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>1.55</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>1.64</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>1.72</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>1.78</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>1.85</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>1.88</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>1.95</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>1.97</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="2">
+      <c r="S2" s="1">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="T2" s="1">
         <v>1.25</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="1">
         <v>1.2</v>
       </c>
-      <c r="S2" s="2">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="2">
+      <c r="W2" s="1">
         <v>0.9</v>
       </c>
-      <c r="U2" s="2">
+      <c r="X2" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>0.92</v>
+      </c>
+      <c r="D3">
+        <v>0.97</v>
+      </c>
+      <c r="E3">
         <v>1.03</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3">
         <v>1.26</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3">
         <v>1.37</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3">
         <v>1.48</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3">
         <v>1.58</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3">
         <v>1.67</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3">
         <v>1.75</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3">
         <v>1.81</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3">
         <v>1.88</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3">
         <v>1.91</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3">
         <v>1.98</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P3" s="1">
+      <c r="S3">
         <v>1.35</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="T3">
         <v>1.3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="U3">
         <v>1.25</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3">
         <v>1.05</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3">
         <v>0.95</v>
       </c>
-      <c r="U3" s="1">
+      <c r="X3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>0.78</v>
+      </c>
+      <c r="C4">
+        <v>0.95</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1.06</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4">
         <v>1.29</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4">
         <v>1.4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4">
         <v>1.51</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4">
         <v>1.61</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4">
         <v>1.7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4">
         <v>1.78</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4">
         <v>1.84</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4">
         <v>1.91</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4">
         <v>1.94</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4">
         <v>2.06</v>
       </c>
-      <c r="P4" s="1">
+      <c r="S4">
         <v>1.4</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="T4">
         <v>1.35</v>
       </c>
-      <c r="R4" s="1">
+      <c r="U4">
         <v>1.3</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="X4">
         <v>0.74</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>0.81</v>
+      </c>
+      <c r="C5">
+        <v>0.98</v>
+      </c>
+      <c r="D5">
+        <v>1.03</v>
+      </c>
+      <c r="E5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5">
         <v>1.19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5">
         <v>1.32</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5">
         <v>1.43</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5">
         <v>1.54</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5">
         <v>1.64</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5">
         <v>1.73</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5">
         <v>1.81</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5">
         <v>1.87</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5">
         <v>1.94</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5">
         <v>1.97</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5">
         <v>2.04</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5">
         <v>2.06</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5">
         <v>2.09</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5">
         <v>1.45</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5">
         <v>1.4</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5">
         <v>1.35</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5">
         <v>1.05</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5">
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>0.84</v>
+      </c>
+      <c r="C6">
+        <v>1.01</v>
+      </c>
+      <c r="D6">
+        <v>1.06</v>
+      </c>
+      <c r="E6">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6">
         <v>1.22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6">
         <v>1.35</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6">
         <v>1.46</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6">
         <v>1.57</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6">
         <v>1.67</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6">
         <v>1.76</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6">
         <v>1.84</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6">
         <v>1.9</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6">
         <v>1.97</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6">
         <v>2.09</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6">
         <v>2.12</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6">
         <v>1.45</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6">
         <v>1.4</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6">
         <v>1.2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6">
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>0.87</v>
+      </c>
+      <c r="C7">
+        <v>1.04</v>
+      </c>
+      <c r="D7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7">
         <v>1.25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7">
         <v>1.38</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7">
         <v>1.49</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7">
         <v>1.6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7">
         <v>1.7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7">
         <v>1.79</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7">
         <v>1.87</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7">
         <v>1.93</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7">
         <v>2.1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7">
         <v>2.12</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7">
         <v>2.15</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7">
         <v>1.55</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7">
         <v>1.5</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7">
         <v>1.45</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7">
         <v>1.25</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>1.07</v>
+      </c>
+      <c r="D8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E8">
         <v>1.18</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8">
         <v>1.28</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8">
         <v>1.41</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8">
         <v>1.52</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8">
         <v>1.63</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8">
         <v>1.73</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8">
         <v>1.82</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8">
         <v>1.9</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8">
         <v>1.96</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8">
         <v>2.06</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8">
         <v>2.13</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8">
         <v>2.15</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8">
         <v>1.6</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8">
         <v>1.55</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8">
         <v>1.5</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8">
         <v>1.3</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8">
         <v>1.2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>0.93</v>
+      </c>
+      <c r="C9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E9">
         <v>1.21</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9">
         <v>1.31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9">
         <v>1.44</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9">
         <v>1.55</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9">
         <v>1.66</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9">
         <v>1.76</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9">
         <v>1.85</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9">
         <v>1.93</v>
       </c>
-      <c r="J9" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
         <v>2.06</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9">
         <v>2.09</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9">
         <v>2.16</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9">
         <v>2.1800000000000002</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9">
         <v>2.21</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9">
         <v>1.65</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9">
         <v>1.6</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9">
         <v>1.55</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9">
         <v>1.35</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9">
         <v>1.25</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9">
         <v>0.84</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>0.97</v>
+      </c>
+      <c r="C10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.18</v>
+      </c>
+      <c r="E10">
         <v>1.24</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10">
         <v>1.34</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10">
         <v>1.47</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10">
         <v>1.58</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10">
         <v>1.69</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10">
         <v>1.79</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10">
         <v>1.88</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10">
         <v>1.96</v>
       </c>
-      <c r="J10" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="M10">
+        <v>2.04</v>
+      </c>
+      <c r="N10">
         <v>2.09</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10">
         <v>2.12</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10">
         <v>2.19</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10">
         <v>2.21</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10">
         <v>1.7</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10">
         <v>1.65</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10">
         <v>1.6</v>
       </c>
-      <c r="S10" s="1">
+      <c r="V10">
         <v>1.4</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10">
         <v>1.3</v>
       </c>
-      <c r="U10" s="1">
+      <c r="X10">
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.21</v>
+      </c>
+      <c r="E11">
         <v>1.27</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11">
         <v>1.37</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11">
         <v>1.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11">
         <v>1.61</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11">
         <v>1.72</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11">
         <v>1.82</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11">
         <v>1.91</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11">
         <v>1.99</v>
       </c>
-      <c r="J11" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="M11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N11">
         <v>2.12</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11">
         <v>2.15</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11">
         <v>2.2200000000000002</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11">
         <v>2.2400000000000002</v>
       </c>
-      <c r="O11" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="R11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="S11">
         <v>1.75</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11">
         <v>1.7</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11">
         <v>1.65</v>
       </c>
-      <c r="S11" s="1">
+      <c r="V11">
         <v>1.45</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11">
         <v>1.35</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11">
         <v>0.88</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>1.03</v>
+      </c>
+      <c r="C12">
+        <v>1.19</v>
+      </c>
+      <c r="D12">
+        <v>1.24</v>
+      </c>
+      <c r="E12">
         <v>1.3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12">
         <v>1.4</v>
       </c>
-      <c r="D12" s="1">
+      <c r="G12">
         <v>1.53</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12">
         <v>1.64</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12">
         <v>1.75</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12">
         <v>1.85</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12">
         <v>1.94</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12">
         <v>2.02</v>
       </c>
-      <c r="J12" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
         <v>2.15</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12">
         <v>2.1800000000000002</v>
       </c>
-      <c r="M12" s="1">
+      <c r="P12">
         <v>2.25</v>
       </c>
-      <c r="N12" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="Q12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R12">
+        <v>2.31</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="T12">
         <v>1.75</v>
       </c>
-      <c r="R12" s="1">
+      <c r="U12">
         <v>1.7</v>
       </c>
-      <c r="S12" s="1">
+      <c r="V12">
         <v>1.5</v>
       </c>
-      <c r="T12" s="1">
+      <c r="W12">
         <v>1.4</v>
       </c>
-      <c r="U12" s="1">
+      <c r="X12">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>1.06</v>
+      </c>
+      <c r="C13">
+        <v>1.22</v>
+      </c>
+      <c r="D13">
+        <v>1.27</v>
+      </c>
+      <c r="E13">
         <v>1.33</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13">
         <v>1.43</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13">
         <v>1.56</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13">
         <v>1.67</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13">
         <v>1.78</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13">
         <v>1.88</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13">
         <v>1.97</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J13" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="M13">
+        <v>2.13</v>
+      </c>
+      <c r="N13">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13">
         <v>2.21</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13">
         <v>2.2799999999999998</v>
       </c>
-      <c r="N13" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="Q13">
+        <v>2.31</v>
+      </c>
+      <c r="R13">
+        <v>2.34</v>
+      </c>
+      <c r="S13">
         <v>1.85</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13">
         <v>1.8</v>
       </c>
-      <c r="R13" s="1">
+      <c r="U13">
         <v>1.75</v>
       </c>
-      <c r="S13" s="1">
+      <c r="V13">
         <v>1.55</v>
       </c>
-      <c r="T13" s="1">
+      <c r="W13">
         <v>1.45</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13">
         <v>0.92</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.25</v>
+      </c>
+      <c r="D14">
+        <v>1.3</v>
+      </c>
+      <c r="E14">
         <v>1.36</v>
       </c>
-      <c r="C14" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="F14">
+        <v>1.45</v>
+      </c>
+      <c r="G14">
         <v>1.59</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14">
         <v>1.7</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14">
         <v>1.81</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14">
         <v>1.91</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14">
         <v>2.08</v>
       </c>
-      <c r="J14" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="M14">
+        <v>2.16</v>
+      </c>
+      <c r="N14">
         <v>2.21</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14">
         <v>2.31</v>
       </c>
-      <c r="N14" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2.36</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="Q14">
+        <v>2.34</v>
+      </c>
+      <c r="R14">
+        <v>2.37</v>
+      </c>
+      <c r="S14">
         <v>1.9</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="T14">
         <v>1.85</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14">
         <v>1.6</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14">
         <v>1.5</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14">
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.28</v>
+      </c>
+      <c r="D15">
+        <v>1.33</v>
+      </c>
+      <c r="E15">
         <v>1.39</v>
       </c>
-      <c r="C15" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="F15">
+        <v>1.48</v>
+      </c>
+      <c r="G15">
         <v>1.62</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15">
         <v>1.73</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15">
         <v>1.84</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15">
         <v>1.94</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15">
         <v>2.11</v>
       </c>
-      <c r="J15" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="M15">
+        <v>2.19</v>
+      </c>
+      <c r="N15">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L15" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="O15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P15">
         <v>2.34</v>
       </c>
-      <c r="N15" s="1">
-        <v>2.36</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2.39</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15">
+        <v>2.37</v>
+      </c>
+      <c r="R15">
+        <v>2.41</v>
+      </c>
+      <c r="S15">
         <v>1.95</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="T15">
         <v>1.9</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15" s="1">
+      <c r="V15">
         <v>1.65</v>
       </c>
-      <c r="T15" s="1">
+      <c r="W15">
         <v>1.55</v>
       </c>
-      <c r="U15" s="1">
+      <c r="X15">
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C16">
+        <v>1.31</v>
+      </c>
+      <c r="D16">
+        <v>1.36</v>
+      </c>
+      <c r="E16">
         <v>1.42</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16">
         <v>1.52</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16">
         <v>1.65</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16">
         <v>1.76</v>
       </c>
-      <c r="F16" s="1">
+      <c r="I16">
         <v>1.87</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16">
         <v>1.97</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16">
         <v>2.06</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16">
         <v>2.14</v>
       </c>
-      <c r="J16" s="1">
-        <v>2.19</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="M16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N16">
         <v>2.27</v>
       </c>
-      <c r="L16" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="O16">
+        <v>2.31</v>
+      </c>
+      <c r="P16">
         <v>2.37</v>
       </c>
-      <c r="N16" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16">
+        <v>2.41</v>
+      </c>
+      <c r="R16">
+        <v>2.44</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="T16">
         <v>1.95</v>
       </c>
-      <c r="R16" s="1">
+      <c r="U16">
         <v>1.9</v>
       </c>
-      <c r="S16" s="1">
+      <c r="V16">
         <v>1.7</v>
       </c>
-      <c r="T16" s="1">
+      <c r="W16">
         <v>1.6</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
+        <v>1.18</v>
+      </c>
+      <c r="C17">
+        <v>1.34</v>
+      </c>
+      <c r="D17">
+        <v>1.39</v>
+      </c>
+      <c r="E17">
         <v>1.45</v>
       </c>
-      <c r="C17" s="1">
+      <c r="F17">
         <v>1.55</v>
       </c>
-      <c r="D17" s="1">
+      <c r="G17">
         <v>1.68</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17">
         <v>1.79</v>
       </c>
-      <c r="F17" s="1">
+      <c r="I17">
         <v>1.9</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17">
         <v>2.09</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17">
         <v>2.17</v>
       </c>
-      <c r="J17" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="M17">
+        <v>2.25</v>
+      </c>
+      <c r="N17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L17" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="O17">
+        <v>2.34</v>
+      </c>
+      <c r="P17">
         <v>2.4</v>
       </c>
-      <c r="N17" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="Q17">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17">
+        <v>2.48</v>
+      </c>
+      <c r="S17">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="R17" s="1">
+      <c r="U17">
         <v>1.95</v>
       </c>
-      <c r="S17" s="1">
+      <c r="V17">
         <v>1.75</v>
       </c>
-      <c r="T17" s="1">
+      <c r="W17">
         <v>1.65</v>
       </c>
-      <c r="U17" s="1">
+      <c r="X17">
         <v>1.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>1.21</v>
+      </c>
+      <c r="C18">
+        <v>1.37</v>
+      </c>
+      <c r="D18">
+        <v>1.42</v>
+      </c>
+      <c r="E18">
         <v>1.48</v>
       </c>
-      <c r="C18" s="1">
+      <c r="F18">
         <v>1.58</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="G18">
+        <v>1.72</v>
+      </c>
+      <c r="H18">
         <v>1.82</v>
       </c>
-      <c r="F18" s="1">
+      <c r="I18">
         <v>1.93</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18">
         <v>2.12</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J18" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="M18">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="N18">
         <v>2.33</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18">
         <v>2.37</v>
       </c>
-      <c r="M18" s="1">
+      <c r="P18">
         <v>2.4300000000000002</v>
       </c>
-      <c r="N18" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18">
+        <v>2.48</v>
+      </c>
+      <c r="R18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S18">
         <v>2.1</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="T18">
         <v>2.0499999999999998</v>
       </c>
-      <c r="R18" s="1">
+      <c r="U18">
         <v>2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="T18" s="1">
+      <c r="W18">
         <v>1.7</v>
       </c>
-      <c r="U18" s="1">
+      <c r="X18">
         <v>1.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <v>1.24</v>
+      </c>
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>1.45</v>
+      </c>
+      <c r="E19">
         <v>1.51</v>
       </c>
-      <c r="C19" s="1">
+      <c r="F19">
         <v>1.62</v>
       </c>
-      <c r="D19" s="1">
+      <c r="G19">
+        <v>1.76</v>
+      </c>
+      <c r="H19">
+        <v>1.86</v>
+      </c>
+      <c r="I19">
+        <v>1.97</v>
+      </c>
+      <c r="J19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K19">
+        <v>2.16</v>
+      </c>
+      <c r="L19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M19">
+        <v>2.31</v>
+      </c>
+      <c r="N19">
+        <v>2.37</v>
+      </c>
+      <c r="O19">
+        <v>2.41</v>
+      </c>
+      <c r="P19">
+        <v>2.46</v>
+      </c>
+      <c r="Q19">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R19">
+        <v>2.54</v>
+      </c>
+      <c r="S19">
+        <v>2.15</v>
+      </c>
+      <c r="T19">
+        <v>2.1</v>
+      </c>
+      <c r="U19">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="V19">
+        <v>1.85</v>
+      </c>
+      <c r="W19">
         <v>1.75</v>
       </c>
-      <c r="E19" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.97</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2.41</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1.85</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="U19" s="1">
+      <c r="X19">
         <v>1.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
+        <v>1.27</v>
+      </c>
+      <c r="C20">
+        <v>1.43</v>
+      </c>
+      <c r="D20">
+        <v>1.48</v>
+      </c>
+      <c r="E20">
         <v>1.54</v>
       </c>
-      <c r="C20" s="1">
+      <c r="F20">
         <v>1.66</v>
       </c>
-      <c r="D20" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="G20">
+        <v>1.8</v>
+      </c>
+      <c r="H20">
         <v>1.9</v>
       </c>
-      <c r="F20" s="1">
+      <c r="I20">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20">
         <v>2.11</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20">
         <v>2.34</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20">
         <v>2.41</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20">
         <v>2.5</v>
       </c>
-      <c r="N20" s="1">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="Q20">
+        <v>2.54</v>
+      </c>
+      <c r="R20">
+        <v>2.57</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
+        <v>1.3</v>
+      </c>
+      <c r="C21">
+        <v>1.46</v>
+      </c>
+      <c r="D21">
+        <v>1.51</v>
+      </c>
+      <c r="E21">
         <v>1.57</v>
       </c>
-      <c r="C21" s="1">
+      <c r="F21">
         <v>1.7</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="G21">
+        <v>1.84</v>
+      </c>
+      <c r="H21">
         <v>1.94</v>
       </c>
-      <c r="F21" s="1">
+      <c r="I21">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21">
         <v>2.15</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21">
         <v>2.38</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21">
         <v>2.54</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21">
         <v>2.57</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21">
         <v>2.6</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22">
+        <v>1.33</v>
+      </c>
+      <c r="C22">
+        <v>1.49</v>
+      </c>
+      <c r="D22">
+        <v>1.54</v>
+      </c>
+      <c r="E22">
+        <v>1.61</v>
+      </c>
+      <c r="F22">
         <v>1.74</v>
       </c>
-      <c r="D22" s="1">
+      <c r="G22">
         <v>1.87</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22">
         <v>1.98</v>
       </c>
-      <c r="F22" s="1">
+      <c r="I22">
         <v>2.09</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22">
         <v>2.19</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22">
         <v>2.36</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22">
         <v>2.42</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22">
         <v>2.58</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22">
         <v>2.61</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22">
         <v>2.64</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5284,18 +5527,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:X22">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U2">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>P3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U19 B20:O22">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
